--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H2">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I2">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J2">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P2">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q2">
-        <v>1.719750757016619</v>
+        <v>0.07764791515</v>
       </c>
       <c r="R2">
-        <v>1.719750757016619</v>
+        <v>0.6988312363499999</v>
       </c>
       <c r="S2">
-        <v>0.0006113618531649126</v>
+        <v>1.976337194303969E-05</v>
       </c>
       <c r="T2">
-        <v>0.0006113618531649126</v>
+        <v>2.510224933825708E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H3">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I3">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J3">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N3">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O3">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P3">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q3">
-        <v>5.657242604623211</v>
+        <v>5.666227194879333</v>
       </c>
       <c r="R3">
-        <v>5.657242604623211</v>
+        <v>50.996044753914</v>
       </c>
       <c r="S3">
-        <v>0.002011118360294183</v>
+        <v>0.001442199128590083</v>
       </c>
       <c r="T3">
-        <v>0.002011118360294183</v>
+        <v>0.00183179480837708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2242.34772846822</v>
+        <v>14.513629</v>
       </c>
       <c r="H4">
-        <v>2242.34772846822</v>
+        <v>43.540887</v>
       </c>
       <c r="I4">
-        <v>0.9634597680314189</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J4">
-        <v>0.9634597680314189</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N4">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O4">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P4">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q4">
-        <v>631.8105497702102</v>
+        <v>3.158475294485333</v>
       </c>
       <c r="R4">
-        <v>631.8105497702102</v>
+        <v>28.426277650368</v>
       </c>
       <c r="S4">
-        <v>0.2246051452401978</v>
+        <v>0.0008039124025059606</v>
       </c>
       <c r="T4">
-        <v>0.2246051452401978</v>
+        <v>0.001021081302926596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2242.34772846822</v>
+        <v>14.513629</v>
       </c>
       <c r="H5">
-        <v>2242.34772846822</v>
+        <v>43.540887</v>
       </c>
       <c r="I5">
-        <v>0.9634597680314189</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J5">
-        <v>0.9634597680314189</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N5">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O5">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P5">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q5">
-        <v>2078.385804237739</v>
+        <v>14.0842795701075</v>
       </c>
       <c r="R5">
-        <v>2078.385804237739</v>
+        <v>84.50567742064499</v>
       </c>
       <c r="S5">
-        <v>0.738854622791221</v>
+        <v>0.00358480784907191</v>
       </c>
       <c r="T5">
-        <v>0.738854622791221</v>
+        <v>0.003035471906194155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.470619117884544</v>
+        <v>2384.33138</v>
       </c>
       <c r="H6">
-        <v>0.470619117884544</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I6">
-        <v>0.0002022088636796458</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J6">
-        <v>0.0002022088636796458</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P6">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q6">
-        <v>0.1326030391397519</v>
+        <v>12.756172883</v>
       </c>
       <c r="R6">
-        <v>0.1326030391397519</v>
+        <v>114.805555947</v>
       </c>
       <c r="S6">
-        <v>4.713964474969248E-05</v>
+        <v>0.003246770872977468</v>
       </c>
       <c r="T6">
-        <v>4.713964474969248E-05</v>
+        <v>0.004123853572789452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.470619117884544</v>
+        <v>2384.33138</v>
       </c>
       <c r="H7">
-        <v>0.470619117884544</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I7">
-        <v>0.0002022088636796458</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J7">
-        <v>0.0002022088636796458</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N7">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O7">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P7">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q7">
-        <v>0.4362071419147363</v>
+        <v>930.8604558487867</v>
       </c>
       <c r="R7">
-        <v>0.4362071419147363</v>
+        <v>8377.744102639081</v>
       </c>
       <c r="S7">
-        <v>0.0001550692189299534</v>
+        <v>0.2369276931707425</v>
       </c>
       <c r="T7">
-        <v>0.0001550692189299534</v>
+        <v>0.3009313413850223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.4692558270205</v>
+        <v>2384.33138</v>
       </c>
       <c r="H8">
-        <v>78.4692558270205</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I8">
-        <v>0.03371554289144264</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J8">
-        <v>0.03371554289144264</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N8">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O8">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P8">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q8">
-        <v>22.10973036639431</v>
+        <v>518.8813740241067</v>
       </c>
       <c r="R8">
-        <v>22.10973036639431</v>
+        <v>4669.932366216961</v>
       </c>
       <c r="S8">
-        <v>0.007859886483332268</v>
+        <v>0.1320685245617173</v>
       </c>
       <c r="T8">
-        <v>0.007859886483332268</v>
+        <v>0.1677455164452095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2384.33138</v>
+      </c>
+      <c r="H9">
+        <v>7152.994140000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9611632266666733</v>
+      </c>
+      <c r="J9">
+        <v>0.9714748141410159</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.940835</v>
+      </c>
+      <c r="O9">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P9">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q9">
+        <v>2313.79689695115</v>
+      </c>
+      <c r="R9">
+        <v>13882.7813817069</v>
+      </c>
+      <c r="S9">
+        <v>0.5889202380612359</v>
+      </c>
+      <c r="T9">
+        <v>0.4986741027379948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.183031</v>
+      </c>
+      <c r="I10">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J10">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.00535</v>
+      </c>
+      <c r="N10">
+        <v>0.01605</v>
+      </c>
+      <c r="O10">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P10">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q10">
+        <v>0.007459738616666666</v>
+      </c>
+      <c r="R10">
+        <v>0.06713764754999998</v>
+      </c>
+      <c r="S10">
+        <v>1.898693462589893E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.41160652403932E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.183031</v>
+      </c>
+      <c r="I11">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J11">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.171222</v>
+      </c>
+      <c r="O11">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P11">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q11">
+        <v>0.5443619926535556</v>
+      </c>
+      <c r="R11">
+        <v>4.899257933882</v>
+      </c>
+      <c r="S11">
+        <v>0.0001385539909433931</v>
+      </c>
+      <c r="T11">
+        <v>0.0001759829667475627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.183031</v>
+      </c>
+      <c r="I12">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J12">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.652864</v>
+      </c>
+      <c r="O12">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P12">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q12">
+        <v>0.3034389278648889</v>
+      </c>
+      <c r="R12">
+        <v>2.730950350784</v>
+      </c>
+      <c r="S12">
+        <v>7.723293512525159E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.809664060500978E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.394343666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.183031</v>
+      </c>
+      <c r="I13">
+        <v>0.0005620828836869033</v>
+      </c>
+      <c r="J13">
+        <v>0.0005681130424176619</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.940835</v>
+      </c>
+      <c r="O13">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P13">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q13">
+        <v>1.3530954951475</v>
+      </c>
+      <c r="R13">
+        <v>8.118572970884999</v>
+      </c>
+      <c r="S13">
+        <v>0.0003443972641556686</v>
+      </c>
+      <c r="T13">
+        <v>0.0002916218285410502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="H9">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="I9">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="J9">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="N9">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="O9">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="P9">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="Q9">
-        <v>72.73153280797693</v>
-      </c>
-      <c r="R9">
-        <v>72.73153280797693</v>
-      </c>
-      <c r="S9">
-        <v>0.02585565640811037</v>
-      </c>
-      <c r="T9">
-        <v>0.02585565640811037</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H14">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J14">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00535</v>
+      </c>
+      <c r="N14">
+        <v>0.01605</v>
+      </c>
+      <c r="O14">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P14">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q14">
+        <v>0.007709672783333335</v>
+      </c>
+      <c r="R14">
+        <v>0.06938705505000001</v>
+      </c>
+      <c r="S14">
+        <v>1.962308073330759E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.492405986042856E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H15">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J15">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.171222</v>
+      </c>
+      <c r="O15">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P15">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q15">
+        <v>0.5626005219091113</v>
+      </c>
+      <c r="R15">
+        <v>5.063404697182001</v>
+      </c>
+      <c r="S15">
+        <v>0.0001431961611378566</v>
+      </c>
+      <c r="T15">
+        <v>0.0001818791728215007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H16">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J16">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.652864</v>
+      </c>
+      <c r="O16">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P16">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q16">
+        <v>0.3136054711537778</v>
+      </c>
+      <c r="R16">
+        <v>2.822449240384</v>
+      </c>
+      <c r="S16">
+        <v>7.982057931383257E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.000101383311007594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H17">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J17">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.940835</v>
+      </c>
+      <c r="O17">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P17">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q17">
+        <v>1.3984301660225</v>
+      </c>
+      <c r="R17">
+        <v>8.390580996135</v>
+      </c>
+      <c r="S17">
+        <v>0.0003559360924769068</v>
+      </c>
+      <c r="T17">
+        <v>0.0003013924468486908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>78.9922905</v>
+      </c>
+      <c r="H18">
+        <v>157.984581</v>
+      </c>
+      <c r="I18">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J18">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00535</v>
+      </c>
+      <c r="N18">
+        <v>0.01605</v>
+      </c>
+      <c r="O18">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P18">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q18">
+        <v>0.4226087541749999</v>
+      </c>
+      <c r="R18">
+        <v>2.53565252505</v>
+      </c>
+      <c r="S18">
+        <v>0.0001075646909387129</v>
+      </c>
+      <c r="T18">
+        <v>9.108147805675323E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>78.9922905</v>
+      </c>
+      <c r="H19">
+        <v>157.984581</v>
+      </c>
+      <c r="I19">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J19">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.171222</v>
+      </c>
+      <c r="O19">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P19">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q19">
+        <v>30.839169487997</v>
+      </c>
+      <c r="R19">
+        <v>185.035016927982</v>
+      </c>
+      <c r="S19">
+        <v>0.007849354046767674</v>
+      </c>
+      <c r="T19">
+        <v>0.00664651905872814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>78.9922905</v>
+      </c>
+      <c r="H20">
+        <v>157.984581</v>
+      </c>
+      <c r="I20">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J20">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.652864</v>
+      </c>
+      <c r="O20">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P20">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q20">
+        <v>17.190407581664</v>
+      </c>
+      <c r="R20">
+        <v>103.142445489984</v>
+      </c>
+      <c r="S20">
+        <v>0.004375396534891704</v>
+      </c>
+      <c r="T20">
+        <v>0.003704910784426426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>78.9922905</v>
+      </c>
+      <c r="H21">
+        <v>157.984581</v>
+      </c>
+      <c r="I21">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J21">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.940835</v>
+      </c>
+      <c r="O21">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P21">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q21">
+        <v>76.65550106628375</v>
+      </c>
+      <c r="R21">
+        <v>306.622004265135</v>
+      </c>
+      <c r="S21">
+        <v>0.01951077728392867</v>
+      </c>
+      <c r="T21">
+        <v>0.01101396389185537</v>
       </c>
     </row>
   </sheetData>
